--- a/results/results-paper.xlsx
+++ b/results/results-paper.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Archi\ProgramWorkspace\coedit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Archi\ProgramWorkspace\coedit\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72C77DC-B36D-45C2-873E-E048C01D6892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727649D2-46F2-4E58-A473-5CAF0F522288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="2175" windowWidth="19755" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="60">
   <si>
     <t>MEMIT(Score)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,22 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MEMIT(Latency)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMET(Latency)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMIT-CKE(Latency)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMIT-pCKE(Latency)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mcf(gpt-j-6B)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,10 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MEMIT-CKE((Latency)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MEMIT-pCKE((Efficacy)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +189,6 @@
   </si>
   <si>
     <t>MEMIT-pCKE((Consistency)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMIT-pCKE((Latency)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -673,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -715,9 +691,9 @@
     <col min="37" max="37" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -731,9 +707,6 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
@@ -746,9 +719,6 @@
       <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
@@ -761,11 +731,8 @@
       <c r="O1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -809,7 +776,7 @@
         <v>28.73</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -853,7 +820,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -897,7 +864,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -941,7 +908,7 @@
         <v>28.61</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -985,7 +952,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1029,7 +996,7 @@
         <v>28.51</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1073,7 +1040,7 @@
         <v>28.44</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1117,7 +1084,7 @@
         <v>28.51</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1161,7 +1128,7 @@
         <v>28.41</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1205,9 +1172,9 @@
         <v>27.73</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2">
         <v>51.398688540000002</v>
@@ -1246,7 +1213,7 @@
         <v>28.472000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1287,7 +1254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1331,7 +1298,7 @@
         <v>32.43</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1375,7 +1342,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1729,7 +1696,7 @@
     </row>
     <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2">
         <v>53.085211649999998</v>
@@ -1784,9 +1751,6 @@
       <c r="E25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="G25" s="4" t="s">
         <v>13</v>
       </c>
@@ -2254,7 +2218,7 @@
     </row>
     <row r="36" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2">
         <v>40.929710309999997</v>
@@ -2776,7 +2740,7 @@
     </row>
     <row r="48" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B48" s="2">
         <v>58.426703809999999</v>
@@ -2815,9 +2779,9 @@
         <v>33.412999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>0</v>
@@ -2832,58 +2796,49 @@
         <v>3</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N51" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N51" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O51" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>19</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="T51" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V51" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0</v>
       </c>
@@ -2942,7 +2897,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3001,7 +2956,7 @@
         <v>42.18</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3060,7 +3015,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3119,7 +3074,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4</v>
       </c>
@@ -3178,7 +3133,7 @@
         <v>40.61</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5</v>
       </c>
@@ -3237,7 +3192,7 @@
         <v>38.71</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6</v>
       </c>
@@ -3296,7 +3251,7 @@
         <v>35.24</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>7</v>
       </c>
@@ -3355,7 +3310,7 @@
         <v>33.83</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>8</v>
       </c>
@@ -3414,7 +3369,7 @@
         <v>32.58</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>9</v>
       </c>
@@ -3473,9 +3428,9 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="62" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B62" s="2">
         <v>80.879000000000005</v>
@@ -3532,9 +3487,9 @@
         <v>38.005000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>0</v>
@@ -3549,58 +3504,49 @@
         <v>3</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J63" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N63" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="P63" s="4" t="s">
         <v>19</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="S63" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="T63" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U63" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="V63" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0</v>
       </c>
@@ -4192,10 +4138,10 @@
     </row>
     <row r="74" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C74" s="7">
         <v>96.293000000000006</v>
@@ -4251,10 +4197,10 @@
     </row>
     <row r="75" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
@@ -4849,7 +4795,7 @@
     </row>
     <row r="86" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B86" s="2">
         <v>84.045000000000002</v>
@@ -4908,10 +4854,10 @@
     </row>
     <row r="87" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
@@ -5506,7 +5452,7 @@
     </row>
     <row r="98" spans="1:37" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B98" s="7">
         <v>80.934600000000003</v>
@@ -5565,12 +5511,12 @@
     </row>
     <row r="100" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>0</v>
@@ -6228,7 +6174,7 @@
     </row>
     <row r="109" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>0</v>
@@ -6243,46 +6189,46 @@
         <v>3</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I109" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M109" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K109" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L109" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M109" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="N109" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O109" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P109" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q109" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R109" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S109" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T109" s="4" t="s">
         <v>10</v>
@@ -6297,46 +6243,46 @@
         <v>14</v>
       </c>
       <c r="X109" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Y109" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Z109" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AA109" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AB109" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AC109" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AD109" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AE109" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AF109" s="4" t="s">
         <v>22</v>
       </c>
       <c r="AG109" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AH109" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AI109" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AJ109" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK109" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:37" x14ac:dyDescent="0.2">
@@ -7132,12 +7078,12 @@
     </row>
     <row r="118" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>0</v>
@@ -7795,7 +7741,7 @@
     </row>
     <row r="127" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>0</v>
@@ -7810,46 +7756,46 @@
         <v>3</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H127" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I127" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M127" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="J127" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K127" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L127" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M127" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="N127" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O127" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P127" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q127" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R127" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S127" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="T127" s="4" t="s">
         <v>10</v>
@@ -7864,46 +7810,46 @@
         <v>14</v>
       </c>
       <c r="X127" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Y127" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Z127" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AA127" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AB127" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AC127" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AD127" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AE127" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AF127" s="4" t="s">
         <v>22</v>
       </c>
       <c r="AG127" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AH127" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="AI127" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AJ127" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="AK127" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:37" x14ac:dyDescent="0.2">

--- a/results/results-paper.xlsx
+++ b/results/results-paper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Archi\ProgramWorkspace\coedit\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727649D2-46F2-4E58-A473-5CAF0F522288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A124997C-0726-4F41-8BD3-81E9D3489FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="2175" windowWidth="19755" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
